--- a/collection_results.xlsx
+++ b/collection_results.xlsx
@@ -516,19 +516,19 @@
         <v>6250</v>
       </c>
       <c r="D3" t="n">
-        <v>843.75</v>
+        <v>843</v>
       </c>
       <c r="E3" t="n">
         <v>810937.5</v>
       </c>
       <c r="F3" t="n">
-        <v>843750</v>
+        <v>843000</v>
       </c>
       <c r="G3" t="n">
         <v>187500</v>
       </c>
       <c r="H3" t="n">
-        <v>-220312.5</v>
+        <v>-219562.5</v>
       </c>
     </row>
     <row r="4">
@@ -544,19 +544,19 @@
         <v>7812</v>
       </c>
       <c r="D4" t="n">
-        <v>1054.62</v>
+        <v>1054</v>
       </c>
       <c r="E4" t="n">
         <v>1013607</v>
       </c>
       <c r="F4" t="n">
-        <v>1054620</v>
+        <v>1054000</v>
       </c>
       <c r="G4" t="n">
         <v>234360</v>
       </c>
       <c r="H4" t="n">
-        <v>-275373.0000000002</v>
+        <v>-274753</v>
       </c>
     </row>
     <row r="5">
@@ -572,19 +572,19 @@
         <v>9765</v>
       </c>
       <c r="D5" t="n">
-        <v>1318.275</v>
+        <v>1318</v>
       </c>
       <c r="E5" t="n">
         <v>1267008.75</v>
       </c>
       <c r="F5" t="n">
-        <v>1318275</v>
+        <v>1318000</v>
       </c>
       <c r="G5" t="n">
         <v>292950</v>
       </c>
       <c r="H5" t="n">
-        <v>-344216.25</v>
+        <v>-343941.25</v>
       </c>
     </row>
     <row r="6">
@@ -600,19 +600,19 @@
         <v>12207</v>
       </c>
       <c r="D6" t="n">
-        <v>1647.945</v>
+        <v>1647</v>
       </c>
       <c r="E6" t="n">
         <v>1583858.25</v>
       </c>
       <c r="F6" t="n">
-        <v>1647945</v>
+        <v>1647000</v>
       </c>
       <c r="G6" t="n">
         <v>366210</v>
       </c>
       <c r="H6" t="n">
-        <v>-430296.7500000002</v>
+        <v>-429351.75</v>
       </c>
     </row>
     <row r="7">
@@ -628,19 +628,19 @@
         <v>15258</v>
       </c>
       <c r="D7" t="n">
-        <v>2059.83</v>
+        <v>2059</v>
       </c>
       <c r="E7" t="n">
         <v>1979725.5</v>
       </c>
       <c r="F7" t="n">
-        <v>2059830</v>
+        <v>2059000</v>
       </c>
       <c r="G7" t="n">
         <v>457740</v>
       </c>
       <c r="H7" t="n">
-        <v>-537844.5</v>
+        <v>-537014.5</v>
       </c>
     </row>
     <row r="8">
@@ -656,19 +656,19 @@
         <v>19073</v>
       </c>
       <c r="D8" t="n">
-        <v>2574.855</v>
+        <v>2574</v>
       </c>
       <c r="E8" t="n">
         <v>2474721.75</v>
       </c>
       <c r="F8" t="n">
-        <v>2574855</v>
+        <v>2574000</v>
       </c>
       <c r="G8" t="n">
         <v>572190</v>
       </c>
       <c r="H8" t="n">
-        <v>-672323.25</v>
+        <v>-671468.25</v>
       </c>
     </row>
     <row r="9">
@@ -684,19 +684,19 @@
         <v>23841</v>
       </c>
       <c r="D9" t="n">
-        <v>3218.535</v>
+        <v>3218</v>
       </c>
       <c r="E9" t="n">
         <v>3093369.75</v>
       </c>
       <c r="F9" t="n">
-        <v>3218535</v>
+        <v>3218000</v>
       </c>
       <c r="G9" t="n">
         <v>715230</v>
       </c>
       <c r="H9" t="n">
-        <v>-840395.2500000005</v>
+        <v>-839860.25</v>
       </c>
     </row>
     <row r="10">
@@ -712,19 +712,19 @@
         <v>29802</v>
       </c>
       <c r="D10" t="n">
-        <v>4023.27</v>
+        <v>4023</v>
       </c>
       <c r="E10" t="n">
         <v>3866809.5</v>
       </c>
       <c r="F10" t="n">
-        <v>4023270</v>
+        <v>4023000</v>
       </c>
       <c r="G10" t="n">
         <v>894060</v>
       </c>
       <c r="H10" t="n">
-        <v>-1050520.5</v>
+        <v>-1050250.5</v>
       </c>
     </row>
     <row r="11">
@@ -740,19 +740,19 @@
         <v>37252</v>
       </c>
       <c r="D11" t="n">
-        <v>5029.02</v>
+        <v>5029</v>
       </c>
       <c r="E11" t="n">
         <v>4833447</v>
       </c>
       <c r="F11" t="n">
-        <v>5029020</v>
+        <v>5029000</v>
       </c>
       <c r="G11" t="n">
         <v>1117560</v>
       </c>
       <c r="H11" t="n">
-        <v>-1313133</v>
+        <v>-1313113</v>
       </c>
     </row>
     <row r="12">
@@ -768,19 +768,19 @@
         <v>46566</v>
       </c>
       <c r="D12" t="n">
-        <v>6286.410000000001</v>
+        <v>6286</v>
       </c>
       <c r="E12" t="n">
         <v>6041938.5</v>
       </c>
       <c r="F12" t="n">
-        <v>6286410.000000001</v>
+        <v>6286000</v>
       </c>
       <c r="G12" t="n">
         <v>1396980</v>
       </c>
       <c r="H12" t="n">
-        <v>-1641451.500000001</v>
+        <v>-1641041.5</v>
       </c>
     </row>
     <row r="13">
@@ -796,19 +796,19 @@
         <v>58207</v>
       </c>
       <c r="D13" t="n">
-        <v>7857.945000000001</v>
+        <v>7857</v>
       </c>
       <c r="E13" t="n">
         <v>7552358.25</v>
       </c>
       <c r="F13" t="n">
-        <v>7857945.000000001</v>
+        <v>7857000</v>
       </c>
       <c r="G13" t="n">
         <v>1746210</v>
       </c>
       <c r="H13" t="n">
-        <v>-2051796.750000001</v>
+        <v>-2050851.75</v>
       </c>
     </row>
     <row r="14">
@@ -908,19 +908,19 @@
         <v>13310</v>
       </c>
       <c r="D17" t="n">
-        <v>1064.8</v>
+        <v>1064</v>
       </c>
       <c r="E17" t="n">
         <v>2449040</v>
       </c>
       <c r="F17" t="n">
-        <v>2129600</v>
+        <v>2128000</v>
       </c>
       <c r="G17" t="n">
         <v>399300</v>
       </c>
       <c r="H17" t="n">
-        <v>-79860</v>
+        <v>-78260</v>
       </c>
     </row>
     <row r="18">
@@ -936,19 +936,19 @@
         <v>14641</v>
       </c>
       <c r="D18" t="n">
-        <v>1171.28</v>
+        <v>1171</v>
       </c>
       <c r="E18" t="n">
         <v>2693944</v>
       </c>
       <c r="F18" t="n">
-        <v>2342560</v>
+        <v>2342000</v>
       </c>
       <c r="G18" t="n">
         <v>439230</v>
       </c>
       <c r="H18" t="n">
-        <v>-87846</v>
+        <v>-87286</v>
       </c>
     </row>
     <row r="19">
@@ -964,19 +964,19 @@
         <v>16105</v>
       </c>
       <c r="D19" t="n">
-        <v>1288.4</v>
+        <v>1288</v>
       </c>
       <c r="E19" t="n">
         <v>2963320</v>
       </c>
       <c r="F19" t="n">
-        <v>2576800</v>
+        <v>2576000</v>
       </c>
       <c r="G19" t="n">
         <v>483150</v>
       </c>
       <c r="H19" t="n">
-        <v>-96630</v>
+        <v>-95830</v>
       </c>
     </row>
     <row r="20">
@@ -992,19 +992,19 @@
         <v>17715</v>
       </c>
       <c r="D20" t="n">
-        <v>1417.2</v>
+        <v>1417</v>
       </c>
       <c r="E20" t="n">
         <v>3259560</v>
       </c>
       <c r="F20" t="n">
-        <v>2834400</v>
+        <v>2834000</v>
       </c>
       <c r="G20" t="n">
         <v>531450</v>
       </c>
       <c r="H20" t="n">
-        <v>-106290</v>
+        <v>-105890</v>
       </c>
     </row>
     <row r="21">
@@ -1020,19 +1020,19 @@
         <v>19487</v>
       </c>
       <c r="D21" t="n">
-        <v>1558.96</v>
+        <v>1558</v>
       </c>
       <c r="E21" t="n">
         <v>3585608</v>
       </c>
       <c r="F21" t="n">
-        <v>3117920</v>
+        <v>3116000</v>
       </c>
       <c r="G21" t="n">
         <v>584610</v>
       </c>
       <c r="H21" t="n">
-        <v>-116922</v>
+        <v>-115002</v>
       </c>
     </row>
     <row r="22">
@@ -1048,19 +1048,19 @@
         <v>21435</v>
       </c>
       <c r="D22" t="n">
-        <v>1714.8</v>
+        <v>1714</v>
       </c>
       <c r="E22" t="n">
         <v>3944040</v>
       </c>
       <c r="F22" t="n">
-        <v>3429600</v>
+        <v>3428000</v>
       </c>
       <c r="G22" t="n">
         <v>643050</v>
       </c>
       <c r="H22" t="n">
-        <v>-128610</v>
+        <v>-127010</v>
       </c>
     </row>
     <row r="23">
@@ -1076,19 +1076,19 @@
         <v>23579</v>
       </c>
       <c r="D23" t="n">
-        <v>1886.32</v>
+        <v>1886</v>
       </c>
       <c r="E23" t="n">
         <v>4338536</v>
       </c>
       <c r="F23" t="n">
-        <v>3772640</v>
+        <v>3772000</v>
       </c>
       <c r="G23" t="n">
         <v>707370</v>
       </c>
       <c r="H23" t="n">
-        <v>-141474</v>
+        <v>-140834</v>
       </c>
     </row>
     <row r="24">
@@ -1104,19 +1104,19 @@
         <v>25937</v>
       </c>
       <c r="D24" t="n">
-        <v>2074.96</v>
+        <v>2074</v>
       </c>
       <c r="E24" t="n">
         <v>4772408</v>
       </c>
       <c r="F24" t="n">
-        <v>4149920</v>
+        <v>4148000</v>
       </c>
       <c r="G24" t="n">
         <v>778110</v>
       </c>
       <c r="H24" t="n">
-        <v>-155622</v>
+        <v>-153702</v>
       </c>
     </row>
     <row r="25">
@@ -1132,19 +1132,19 @@
         <v>28531</v>
       </c>
       <c r="D25" t="n">
-        <v>2282.48</v>
+        <v>2282</v>
       </c>
       <c r="E25" t="n">
         <v>5249704</v>
       </c>
       <c r="F25" t="n">
-        <v>4564960</v>
+        <v>4564000</v>
       </c>
       <c r="G25" t="n">
         <v>855930</v>
       </c>
       <c r="H25" t="n">
-        <v>-171186</v>
+        <v>-170226</v>
       </c>
     </row>
   </sheetData>
